--- a/testData/ETestData.xlsx
+++ b/testData/ETestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\E-CommerceProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA882E2F-5C38-43D0-81FF-1A00097133A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F9A302-7D80-49BC-9E33-190DCA4A2493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{D739C792-DA20-4317-990F-6C9B9BC15051}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{D739C792-DA20-4317-990F-6C9B9BC15051}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -408,28 +408,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438AF369-4C4A-4E50-8B75-37CE6703AD6A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0035F696-CED7-49E3-B5FA-19740105910B}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,4 +451,22 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0035F696-CED7-49E3-B5FA-19740105910B}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>